--- a/OEBPS/52項目実現例作成表.xlsx
+++ b/OEBPS/52項目実現例作成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>分類</t>
   </si>
@@ -463,6 +463,10 @@
     <rPh sb="6" eb="7">
       <t>フク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいうえお</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,90 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1127,32 +1047,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1162,6 +1058,114 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1500,13 +1504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="4.625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="38" customWidth="1"/>
     <col min="4" max="4" width="29.875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -1519,7 +1523,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1528,18 +1532,18 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1548,18 +1552,18 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="32"/>
-      <c r="C4" s="77">
+      <c r="B4" s="53"/>
+      <c r="C4" s="41">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1568,40 +1572,40 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="32"/>
-      <c r="C5" s="78">
+      <c r="B5" s="53"/>
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="41">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1610,26 +1614,26 @@
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="44">
+      <c r="I6" s="61"/>
+      <c r="J6" s="64">
         <v>18</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="79">
+      <c r="B7" s="53"/>
+      <c r="C7" s="43">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1638,18 +1642,18 @@
       <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="47"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="43">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1658,12 +1662,12 @@
       <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="77">
+      <c r="B9" s="53"/>
+      <c r="C9" s="41">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1672,7 +1676,7 @@
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="15"/>
@@ -1684,8 +1688,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="77">
+      <c r="B10" s="53"/>
+      <c r="C10" s="41">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1694,7 +1698,7 @@
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G10" s="15"/>
@@ -1703,8 +1707,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="77">
+      <c r="B11" s="53"/>
+      <c r="C11" s="41">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1713,14 +1717,16 @@
       <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="77">
+      <c r="B12" s="53"/>
+      <c r="C12" s="41">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1729,14 +1735,14 @@
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="80">
+      <c r="B13" s="53"/>
+      <c r="C13" s="44">
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1745,14 +1751,14 @@
       <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="79">
+      <c r="B14" s="53"/>
+      <c r="C14" s="43">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1761,12 +1767,12 @@
       <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="79">
+      <c r="B15" s="53"/>
+      <c r="C15" s="43">
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1775,31 +1781,31 @@
       <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="23">
+      <c r="B16" s="53"/>
+      <c r="C16" s="71">
         <v>14</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="28" t="s">
         <v>89</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -1807,27 +1813,27 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="23">
+      <c r="B18" s="53"/>
+      <c r="C18" s="71">
         <v>15</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -1835,8 +1841,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="79">
+      <c r="B20" s="53"/>
+      <c r="C20" s="43">
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1845,12 +1851,12 @@
       <c r="E20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="32"/>
-      <c r="C21" s="79">
+      <c r="B21" s="53"/>
+      <c r="C21" s="43">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1859,12 +1865,12 @@
       <c r="E21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
-      <c r="C22" s="79">
+      <c r="B22" s="53"/>
+      <c r="C22" s="43">
         <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1873,14 +1879,14 @@
       <c r="E22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="43">
         <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1889,12 +1895,12 @@
       <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
-      <c r="C24" s="77">
+      <c r="B24" s="53"/>
+      <c r="C24" s="41">
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1903,7 +1909,7 @@
       <c r="E24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -1911,26 +1917,26 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="32"/>
-      <c r="C25" s="78">
+      <c r="B25" s="53"/>
+      <c r="C25" s="42">
         <v>21</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="32"/>
-      <c r="C26" s="79">
+      <c r="B26" s="53"/>
+      <c r="C26" s="43">
         <v>22</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1939,59 +1945,59 @@
       <c r="E26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="78">
         <v>23</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="76" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="32"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="32" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="32"/>
-      <c r="C29" s="29">
+      <c r="B29" s="53"/>
+      <c r="C29" s="78">
         <v>24</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="76" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="32" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -1999,27 +2005,27 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="32"/>
-      <c r="C31" s="23">
+      <c r="B31" s="53"/>
+      <c r="C31" s="71">
         <v>25</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="69" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="28" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -2027,8 +2033,8 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
-      <c r="C33" s="79">
+      <c r="B33" s="53"/>
+      <c r="C33" s="43">
         <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2037,12 +2043,12 @@
       <c r="E33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="32"/>
-      <c r="C34" s="79">
+      <c r="B34" s="53"/>
+      <c r="C34" s="43">
         <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -2051,132 +2057,132 @@
       <c r="E34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="32"/>
-      <c r="C35" s="70">
+      <c r="B35" s="53"/>
+      <c r="C35" s="81">
         <v>28</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="32"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="48" t="s">
+    <row r="36" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="53"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="49"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="32"/>
-      <c r="C37" s="70">
+      <c r="B37" s="53"/>
+      <c r="C37" s="81">
         <v>29</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="51" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="32"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="48" t="s">
+    <row r="38" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="53"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="49"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="32"/>
-      <c r="C39" s="70">
+      <c r="B39" s="53"/>
+      <c r="C39" s="81">
         <v>30</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="32"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="48" t="s">
+    <row r="40" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="53"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="49"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
-      <c r="C41" s="70">
+      <c r="B41" s="53"/>
+      <c r="C41" s="81">
         <v>31</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="32"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="48" t="s">
+    <row r="42" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="53"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="49"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="32"/>
-      <c r="C43" s="64">
+      <c r="B43" s="53"/>
+      <c r="C43" s="47">
         <v>32</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="49" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="32"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="50" t="s">
+    <row r="44" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="53"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="G44" s="51"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="32"/>
-      <c r="C45" s="79">
+      <c r="B45" s="53"/>
+      <c r="C45" s="43">
         <v>33</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -2185,12 +2191,12 @@
       <c r="E45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="79">
+      <c r="B46" s="53"/>
+      <c r="C46" s="43">
         <v>34</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -2199,14 +2205,14 @@
       <c r="E46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="77">
+      <c r="C47" s="41">
         <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2215,40 +2221,40 @@
       <c r="E47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="32"/>
-      <c r="C48" s="29">
+      <c r="B48" s="53"/>
+      <c r="C48" s="78">
         <v>36</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="76" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="32"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="32" t="s">
         <v>75</v>
       </c>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="32"/>
-      <c r="C50" s="80">
+      <c r="B50" s="53"/>
+      <c r="C50" s="44">
         <v>37</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2257,14 +2263,14 @@
       <c r="E50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="32" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="32"/>
-      <c r="C51" s="79">
+      <c r="B51" s="53"/>
+      <c r="C51" s="43">
         <v>38</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -2273,12 +2279,12 @@
       <c r="E51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="32"/>
-      <c r="C52" s="79">
+      <c r="B52" s="53"/>
+      <c r="C52" s="43">
         <v>39</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -2287,12 +2293,12 @@
       <c r="E52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="32"/>
-      <c r="C53" s="79">
+      <c r="B53" s="53"/>
+      <c r="C53" s="43">
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -2301,12 +2307,12 @@
       <c r="E53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="32"/>
-      <c r="C54" s="77">
+      <c r="B54" s="53"/>
+      <c r="C54" s="41">
         <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2315,7 +2321,7 @@
       <c r="E54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -2323,8 +2329,8 @@
       </c>
     </row>
     <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="32"/>
-      <c r="C55" s="77">
+      <c r="B55" s="53"/>
+      <c r="C55" s="41">
         <v>42</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2333,7 +2339,7 @@
       <c r="E55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -2341,8 +2347,8 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="32"/>
-      <c r="C56" s="77">
+      <c r="B56" s="53"/>
+      <c r="C56" s="41">
         <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2351,7 +2357,7 @@
       <c r="E56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="56" t="s">
+      <c r="F56" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -2359,8 +2365,8 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="32"/>
-      <c r="C57" s="77">
+      <c r="B57" s="53"/>
+      <c r="C57" s="41">
         <v>44</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2369,7 +2375,7 @@
       <c r="E57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="15" t="s">
@@ -2377,8 +2383,8 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="32"/>
-      <c r="C58" s="80">
+      <c r="B58" s="53"/>
+      <c r="C58" s="44">
         <v>45</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2387,14 +2393,14 @@
       <c r="E58" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="32" t="s">
         <v>67</v>
       </c>
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="33"/>
-      <c r="C59" s="80">
+      <c r="B59" s="80"/>
+      <c r="C59" s="44">
         <v>46</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -2403,109 +2409,92 @@
       <c r="E59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="32" t="s">
         <v>71</v>
       </c>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="79">
+      <c r="C60" s="43">
         <v>47</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="58"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="21"/>
-      <c r="C61" s="79">
+      <c r="B61" s="74"/>
+      <c r="C61" s="43">
         <v>48</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="58"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="17"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="21"/>
-      <c r="C62" s="79">
+      <c r="B62" s="74"/>
+      <c r="C62" s="43">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="17"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B63" s="21"/>
-      <c r="C63" s="79">
+      <c r="B63" s="74"/>
+      <c r="C63" s="43">
         <v>50</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="21"/>
-      <c r="C64" s="79">
+      <c r="B64" s="74"/>
+      <c r="C64" s="43">
         <v>51</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="58"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="22"/>
-      <c r="C65" s="81">
+      <c r="B65" s="75"/>
+      <c r="C65" s="45">
         <v>52</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="14"/>
-      <c r="F65" s="61"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="18"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C66" s="82"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -2522,6 +2511,23 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OEBPS/52項目実現例作成表.xlsx
+++ b/OEBPS/52項目実現例作成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>分類</t>
   </si>
@@ -466,7 +466,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あいうえお</t>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少なくとも実現方法を考えよう</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装は無理でも実現方法を考えて記述</t>
+  </si>
+  <si>
+    <t>実装は無理でも実現方法を考えて記述</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装は無理でも実現方法を考えて記述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装は無理でも実現方法を考えて記述</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1058,6 +1123,102 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,102 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1504,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1540,7 +1605,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="40">
@@ -1552,17 +1617,21 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="53"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="41">
         <v>2</v>
       </c>
@@ -1576,13 +1645,13 @@
         <v>72</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="42">
         <v>3</v>
       </c>
@@ -1592,17 +1661,19 @@
       <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="41">
@@ -1620,19 +1691,19 @@
       <c r="G6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="64">
+      <c r="I6" s="71"/>
+      <c r="J6" s="74">
         <v>18</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="43">
         <v>5</v>
       </c>
@@ -1644,13 +1715,13 @@
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="67"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="43">
@@ -1666,7 +1737,7 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="41">
         <v>7</v>
       </c>
@@ -1688,7 +1759,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="41">
         <v>8</v>
       </c>
@@ -1707,7 +1778,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="53"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="41">
         <v>9</v>
       </c>
@@ -1720,12 +1791,10 @@
       <c r="F11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="41">
         <v>10</v>
       </c>
@@ -1741,7 +1810,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="53"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="44">
         <v>11</v>
       </c>
@@ -1757,7 +1826,7 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="53"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="43">
         <v>12</v>
       </c>
@@ -1771,7 +1840,7 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="53"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="43">
         <v>13</v>
       </c>
@@ -1785,11 +1854,11 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="53"/>
-      <c r="C16" s="71">
+      <c r="B16" s="58"/>
+      <c r="C16" s="50">
         <v>14</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1799,9 +1868,9 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="53"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="70"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1813,11 +1882,11 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="53"/>
-      <c r="C18" s="71">
+      <c r="B18" s="58"/>
+      <c r="C18" s="50">
         <v>15</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1827,9 +1896,9 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="53"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="70"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1910,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="43">
         <v>16</v>
       </c>
@@ -1855,7 +1924,7 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="53"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="43">
         <v>17</v>
       </c>
@@ -1869,7 +1938,7 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="43">
         <v>18</v>
       </c>
@@ -1883,7 +1952,7 @@
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="43">
@@ -1899,7 +1968,7 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="41">
         <v>20</v>
       </c>
@@ -1917,7 +1986,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="53"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="42">
         <v>21</v>
       </c>
@@ -1935,7 +2004,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="53"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="43">
         <v>22</v>
       </c>
@@ -1949,13 +2018,13 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="56">
         <v>23</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="54" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -1965,9 +2034,9 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="53"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="13" t="s">
         <v>6</v>
       </c>
@@ -1977,11 +2046,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="53"/>
-      <c r="C29" s="78">
+      <c r="B29" s="58"/>
+      <c r="C29" s="56">
         <v>24</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -1991,9 +2060,9 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="53"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="13" t="s">
         <v>6</v>
       </c>
@@ -2005,11 +2074,11 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="53"/>
-      <c r="C31" s="71">
+      <c r="B31" s="58"/>
+      <c r="C31" s="50">
         <v>25</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2019,9 +2088,9 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="53"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="8" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2102,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="53"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="43">
         <v>26</v>
       </c>
@@ -2047,7 +2116,7 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="53"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="43">
         <v>27</v>
       </c>
@@ -2061,11 +2130,11 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="53"/>
-      <c r="C35" s="81">
+      <c r="B35" s="58"/>
+      <c r="C35" s="60">
         <v>28</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2075,21 +2144,25 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="53"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="53"/>
-      <c r="C37" s="81">
+      <c r="B37" s="58"/>
+      <c r="C37" s="60">
         <v>29</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2099,21 +2172,25 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="53"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="53"/>
-      <c r="C39" s="81">
+      <c r="B39" s="58"/>
+      <c r="C39" s="60">
         <v>30</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -2123,21 +2200,25 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="53"/>
-      <c r="C41" s="81">
+      <c r="B41" s="58"/>
+      <c r="C41" s="60">
         <v>31</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -2147,21 +2228,25 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="53"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="47">
+      <c r="B43" s="58"/>
+      <c r="C43" s="79">
         <v>32</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="81" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2171,17 +2256,21 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="53"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="23"/>
+      <c r="F44" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="53"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="43">
         <v>33</v>
       </c>
@@ -2195,7 +2284,7 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="53"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="43">
         <v>34</v>
       </c>
@@ -2209,7 +2298,7 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="41">
@@ -2227,11 +2316,11 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="53"/>
-      <c r="C48" s="78">
+      <c r="B48" s="58"/>
+      <c r="C48" s="56">
         <v>36</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="54" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -2241,9 +2330,9 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="53"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="77"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="13" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2342,7 @@
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="53"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="44">
         <v>37</v>
       </c>
@@ -2269,7 +2358,7 @@
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="53"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="43">
         <v>38</v>
       </c>
@@ -2283,7 +2372,7 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="53"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="43">
         <v>39</v>
       </c>
@@ -2297,7 +2386,7 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="53"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="43">
         <v>40</v>
       </c>
@@ -2311,7 +2400,7 @@
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="53"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="41">
         <v>41</v>
       </c>
@@ -2329,7 +2418,7 @@
       </c>
     </row>
     <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="53"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="41">
         <v>42</v>
       </c>
@@ -2347,7 +2436,7 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="41">
         <v>43</v>
       </c>
@@ -2365,7 +2454,7 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="53"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="41">
         <v>44</v>
       </c>
@@ -2383,7 +2472,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="53"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="44">
         <v>45</v>
       </c>
@@ -2399,7 +2488,7 @@
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="80"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="44">
         <v>46</v>
       </c>
@@ -2415,7 +2504,7 @@
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="47" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="43">
@@ -2429,7 +2518,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="74"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="43">
         <v>48</v>
       </c>
@@ -2441,7 +2530,7 @@
       <c r="G61" s="17"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="74"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="43">
         <v>49</v>
       </c>
@@ -2453,7 +2542,7 @@
       <c r="G62" s="17"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B63" s="74"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="43">
         <v>50</v>
       </c>
@@ -2465,7 +2554,7 @@
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="74"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="43">
         <v>51</v>
       </c>
@@ -2477,7 +2566,7 @@
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="75"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="45">
         <v>52</v>
       </c>
@@ -2495,6 +2584,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -2511,23 +2617,6 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OEBPS/52項目実現例作成表.xlsx
+++ b/OEBPS/52項目実現例作成表.xlsx
@@ -356,10 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -532,6 +528,13 @@
   </si>
   <si>
     <t>実装は無理でも実現方法を考えて記述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/1篠原</t>
+    <rPh sb="3" eb="5">
+      <t>シノハラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +617,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1059,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1123,6 +1132,84 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1132,18 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1156,9 +1231,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1168,67 +1240,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1601,11 +1625,11 @@
         <v>68</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="40">
@@ -1618,20 +1642,20 @@
         <v>6</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="58"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="41">
         <v>2</v>
       </c>
@@ -1645,13 +1669,13 @@
         <v>72</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="42">
         <v>3</v>
       </c>
@@ -1662,18 +1686,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+        <v>84</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="41">
@@ -1686,24 +1710,24 @@
         <v>6</v>
       </c>
       <c r="F6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="74">
+      <c r="I6" s="61"/>
+      <c r="J6" s="64">
         <v>18</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="43">
         <v>5</v>
       </c>
@@ -1715,13 +1739,13 @@
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="77"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="43">
@@ -1737,7 +1761,7 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="41">
         <v>7</v>
       </c>
@@ -1759,7 +1783,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="41">
         <v>8</v>
       </c>
@@ -1778,7 +1802,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="41">
         <v>9</v>
       </c>
@@ -1794,7 +1818,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="41">
         <v>10</v>
       </c>
@@ -1810,7 +1834,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="44">
         <v>11</v>
       </c>
@@ -1826,7 +1850,7 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="43">
         <v>12</v>
       </c>
@@ -1840,7 +1864,7 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="43">
         <v>13</v>
       </c>
@@ -1854,11 +1878,11 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="50">
+      <c r="B16" s="53"/>
+      <c r="C16" s="71">
         <v>14</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1868,25 +1892,25 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="58"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="58"/>
-      <c r="C18" s="50">
+      <c r="B18" s="53"/>
+      <c r="C18" s="71">
         <v>15</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1896,21 +1920,21 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="58"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="58"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="43">
         <v>16</v>
       </c>
@@ -1924,7 +1948,7 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="43">
         <v>17</v>
       </c>
@@ -1938,7 +1962,7 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="58"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="43">
         <v>18</v>
       </c>
@@ -1952,7 +1976,7 @@
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="43">
@@ -1968,7 +1992,7 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="41">
         <v>20</v>
       </c>
@@ -1979,14 +2003,14 @@
         <v>6</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="58"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="42">
         <v>21</v>
       </c>
@@ -1997,14 +2021,14 @@
         <v>6</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="58"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="43">
         <v>22</v>
       </c>
@@ -2018,13 +2042,13 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="78">
         <v>23</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="76" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2034,9 +2058,9 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="58"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="13" t="s">
         <v>6</v>
       </c>
@@ -2046,11 +2070,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="58"/>
-      <c r="C29" s="56">
+      <c r="B29" s="53"/>
+      <c r="C29" s="78">
         <v>24</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="76" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2060,9 +2084,9 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="58"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="13" t="s">
         <v>6</v>
       </c>
@@ -2070,15 +2094,15 @@
         <v>82</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="58"/>
-      <c r="C31" s="50">
+      <c r="B31" s="53"/>
+      <c r="C31" s="86">
         <v>25</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="87" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2088,21 +2112,21 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="58"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="8" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>94</v>
+      <c r="F32" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="58"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="43">
         <v>26</v>
       </c>
@@ -2116,7 +2140,7 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="43">
         <v>27</v>
       </c>
@@ -2130,11 +2154,11 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="58"/>
-      <c r="C35" s="60">
+      <c r="B35" s="53"/>
+      <c r="C35" s="81">
         <v>28</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2144,25 +2168,25 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="58"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58"/>
-      <c r="C37" s="60">
+      <c r="B37" s="53"/>
+      <c r="C37" s="81">
         <v>29</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="51" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2172,25 +2196,25 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="58"/>
-      <c r="C39" s="60">
+      <c r="B39" s="53"/>
+      <c r="C39" s="86">
         <v>30</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="87" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -2200,25 +2224,25 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>106</v>
+      <c r="B40" s="53"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="85" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="58"/>
-      <c r="C41" s="60">
+      <c r="B41" s="53"/>
+      <c r="C41" s="81">
         <v>31</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -2228,25 +2252,25 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="58"/>
-      <c r="C43" s="79">
+      <c r="B43" s="53"/>
+      <c r="C43" s="47">
         <v>32</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="49" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2256,21 +2280,21 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="58"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="82"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="58"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="43">
         <v>33</v>
       </c>
@@ -2284,7 +2308,7 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="43">
         <v>34</v>
       </c>
@@ -2298,7 +2322,7 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="41">
@@ -2316,11 +2340,11 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="58"/>
-      <c r="C48" s="56">
+      <c r="B48" s="53"/>
+      <c r="C48" s="78">
         <v>36</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="76" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -2330,9 +2354,9 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="58"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="55"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="13" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2366,7 @@
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="58"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="44">
         <v>37</v>
       </c>
@@ -2358,7 +2382,7 @@
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="43">
         <v>38</v>
       </c>
@@ -2372,7 +2396,7 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="58"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="43">
         <v>39</v>
       </c>
@@ -2386,7 +2410,7 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="58"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="43">
         <v>40</v>
       </c>
@@ -2400,7 +2424,7 @@
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="58"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="41">
         <v>41</v>
       </c>
@@ -2414,11 +2438,11 @@
         <v>78</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="58"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="41">
         <v>42</v>
       </c>
@@ -2432,11 +2456,11 @@
         <v>79</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="41">
         <v>43</v>
       </c>
@@ -2450,11 +2474,11 @@
         <v>80</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="58"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="41">
         <v>44</v>
       </c>
@@ -2468,11 +2492,11 @@
         <v>78</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="58"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="44">
         <v>45</v>
       </c>
@@ -2488,7 +2512,7 @@
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="59"/>
+      <c r="B59" s="80"/>
       <c r="C59" s="44">
         <v>46</v>
       </c>
@@ -2504,7 +2528,7 @@
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="73" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="43">
@@ -2518,7 +2542,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="48"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="43">
         <v>48</v>
       </c>
@@ -2530,7 +2554,7 @@
       <c r="G61" s="17"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="48"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="43">
         <v>49</v>
       </c>
@@ -2542,7 +2566,7 @@
       <c r="G62" s="17"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B63" s="48"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="43">
         <v>50</v>
       </c>
@@ -2554,7 +2578,7 @@
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="48"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="43">
         <v>51</v>
       </c>
@@ -2566,7 +2590,7 @@
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="49"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="45">
         <v>52</v>
       </c>
@@ -2584,23 +2608,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -2617,9 +2624,27 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
